--- a/Testdata/TC_48.xlsx
+++ b/Testdata/TC_48.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Dh0AAB+LCAAAAAAAAAOlWetvI0kR/1dG/gQS9oydZM+JOnPyK3sWdhzZDtncF9Se6cRDembMdE8Sfzsk0KHjEEJoDx1P8ekQEssK7qRjl8f/ctpkl0/8C1Q/5mU7t5mwijbTVb+qrq6urqruoHevfWpckoh5YbBfqdesikECJ3S94Hy/EvOzav1R5V0b9a4dQo9whH3CAWyAVMD2rpm3X5lzvtgzzaurq9rVVi2Mzs2GZdXNJ8PBxJkTH1e9gHEcOKSSSrlvl6rYqOP6Q8KxizlWkvuV/qRf6xDP6QJtiAN8TqJaO2ZeQBjrBdzjHmFCMiKYk053+B21MLtRe1SrI3ONniHbsUddhSsgFV3jYFoy9XxiN6x6s2o1q1v1qbW7t72919ipNZvN9xPBFIgGmPEJiS49RxImHPsLKW41t+rW7vZ2YweZG0GgK3OAjUbUHZNLjxG3QyhlpTxi6g1sORxWXc6ZFjJzslrRw014HOHFfOpxSsqZMR62DT/QtmRKbHQQRsQB/z3IpENyNYq0W6eLAXCncy/iyy5eltZ1zEg0WggnlRO1UTcMeIuSiB8vYK+JC6EADJtHMUHmHcxMqOsxB769ICaufYYpywsVmOgkjC7YAjvkEM6xKXRcBTTELgQc9xj3nGzSNQY6isIFaITJ2yF1D0CrBm9gpJr7AbhYTNsOw4vMuk1MJHdV7i/sqY95Al+jo8k8vBoFdDmJZ8yJvBlxu+0EvZGHxIHU0p2Y8dAHKzISUrQcZTisLuEfnMFVDuoSx/MxPaLgR2ZvgaICAbViHp55vBPS2A9YYtYKFZ3AoqbkOl1kOkYj2N9A+D0M+kGCV57eyCoKjMOrdM51hvRDjtxiTrLj64xVcBdoyQ6uc+SmiFUeeBRKRH47ctRiYEzmhPCNUaE4SGTDA1F07BalyMyGCCITohvMsC2oG1X5M7WsPfkD06Zs1Avcu3EJEx3G/mgGJ/hSLsiuA2+FhGAJtE1xcAHUE4/PD1uJ6Rs4SC34Tvw6D8FZXVC8lOTUKXka6gcOjV2iUkA/OJMRKWxTe3gnG62RBnCqbYSD5XS5gEzMvD0OH/sVqM17jEdQ/Su2E8YBj5YiVyBTQ98mw+JZICfA9N4yZxH5fgxNx/IgDpxO6N5/Nld55zjw+P0tDONIJcD7i0jviVwYsy4RWUWm+XvLO2XWxKJScD8gfhh4zv29DU4W1rsPWAhLTtW9JYg6X/fGU6jkqtCJs35vsQg6RihtpaZpMRY6ngxWfTzcnLx5x5HpkjMcU+jWOBTV8zTVrpJRi12sYvIkdBzRJOHZohdm0Aw7rl9zoF0QDV/NCX1BMKEHPZkgM48XPY9DesH5AAfnMXQVaV5ZpafpVlTEaYQDJpaTNhErmXczCCV5SjU3dj4lIXOFiabEX4QRpkPwhnegY023RdBxDDGf6xHUL0qcxLNmJppKFc1JrH0bTBYiZbs45To3rhAlSESm6rUzTEZDIi8P4SzSDqbeLFKpNCnXm3iwS1kPmCRdsbiS/WDieLhvQYX9NlmKJjwbaLqM03rCUFErsqc9GW83GzvWVgO6FzFGcsVjgqnRgxPMidEPLgnjPojtGWPCPBe+PEz3jPfIjHhQ+aSL9EaXls7LoYMkuUtTWmBvkVIEQE9x7kHtWAemnEzAPiU4osscUC11EDqAu/3xv29+8/zVi89uP3r65osf/vcfv3r1z5/dPPsRfNz+9W83H/9SLVOB0RTPKJEGTdvNprW1DXGWkpBwrik7YDd2uKSdnsrGNx0jfX+Tg06v33k8aMskkhITcVVHTHE1XIZxNpyoRciJ5JaaSSQoiD1NkpIeF7i5umSLq9olKaLz/LsElS9ev/zs9cs/3ymtHZY1WPXd3Z1qvfHW/gsuvfU1XNp/DQqJX4C3q9ZOtdHIgVcwaKyyfuqnvmuLO7XV2LLqaQJ300DeBFplaU1TfG6uyClSR/VEaQjkxwlTBv4UjkjKVkchN9Ah+sVP3vzlaQGlvaspRS1gnOxdxGRmMpCqD8dTYzI6Hnd6xrQ3EXGS8XI4pfxrwHr29DwVgioIYky/ZUBFhwpmVODWUzHCM4NgZ24s4STmzmEh2DZR1UQPVLlq5eMojBdqR3ICGXUDMs0mGyU25BrJk/5cSzoZawNc2Xrz9883CeiFdLMuNn3myNNQgaNIOb4+tZ/+69WXH7568eL2+c9vvvxBQYOeJ739Q5zDacoP07CHlKfrzQoFnUykMy+s7+bqiyaK29NR6AWc2fVH8uKkRwhE60Kb/I36PpQ8qVj6C+grFPQeZr1rrg+2fYjMIgHsXGCotmF2v0wJKodnfv3Pb393++vPbz95/ubDP9189Mebjz95/fL3b579QZ2626fPb3/6TGf51UIgbRG3VtX5GfIZxDHEaTRE7Ta++uAXRhByA1oOI5YZ6asPPs0pE4bK5iTTDH1cakjRhDVoXljIGTlTUhsKcqmIagA6ooRtpQhdxMKF52STvF8VqsS5k4xv9KfVmBEjhG7qm7CSIjgTvq+cFlEl9egdq1FvaK6yRixhhlnO9Y9pOIMmI2HIR4YVSEHq6wUyrJzv8WDUbg0yiDJiFLkkEmGoPlDSUoqS0mfJKAm1HAW40Pg5MRXvQmuwdVaqOZfGTP3ActZyRfrb/D5RQKBOHEWqIQr0k/0kXkAznLzE3c2Xr5O5/vdQ9ar5jjgb97tFPoxzXCiERbYgSL5MTZql0lSfibcc1c4eCtdkQ+AVXjTBHfpVXnVal9BXRqbIO70oCqONySfjJLAhdNKQUczM4ylG7qnqut1srxJCkvDSD3Xd0ysMu4QSXu7J2sykh+Hlg2Vh78uK9tmIutqZ5a4eqVsyBfl3exEo/++zvQq2VhRBYyUe+Uq/sye31TFccktao5YiBcUNEGbXD+EHXsT4E5EJ9JeinKaUU9WhPhEXLvUhx6f2dkMRAGDmtZsFM5Ojy9VfT0I68Hyv5LXQSs53UQn4crFQLVy/XKSI0nJIrqHBzGmApDj7HpQN9XhSRpsKWMilqbx4sGTe+ZyXNeydGSYumVlVZ0Ya1W3XalZ3Cdmq1uvwP3YaDcvaEc+dWjlkDo9clZzETDYs+6um/T8RHdQvDh0AAA==</t>
+          <t>Bx8AAB+LCAAAAAAAAAOlWVtv48YV/iuEnlqgMinK2rWMMQNZkh2hkmVYcr3OS0GRI3vqEalyhrb1lgIJUqQpiqLYFOkVfUpRoNtFmwDpbi//JVh7t0/9Cz1z4U2Ss6a7MLCcc5szZ86c880IvXM9o8YljhgJg51KbcOqGDjwQp8EZzuVmE+rtUeVdxzUvfYwPXQjd4Y5CBugFbDta0Z2Kuecz7dN8+rqauOqvhFGZ6ZtWTXzyaA/8s7xzK2SgHE38HAl1fLfrlVxUNufDTB3fZe7SnOn0hv1NtqYeB2gDdzAPcPRxm7MSIAZ6waccIKZ0Iywy3G7M/ieWphjbzzaqCFzhZ5J7saE+kquIKnoWg6mxWMyw45t2VbV2qram2Orud2wtutbG41G471EMRVEfZfxEY4uiScJI+7O5lLd2rI3rWbDqm8hc60Q2MoC4KAh9Y/wJWHYb2NKWamImHoDWx6HVZcLpoXMnK429HAX9iN3fj4mnOKy6nthhD0I1IPmPsBXw0jHbzzvA3d8TiK+6LiL0raOGY6GcxGNcqoO6oQBb1Ec8eM5bCr2Yc+B4fAoxsi8g5kpdQjz4JsEMfadqUtZXqnARCdhdMHmrocP4MCawsZVQEPXh8zihHHiZZOuMNBhFM7BIky+G1J/D6xq4TWM1HIvgBCLaXfD8CLzbh0TyRyQ2QB7OnN5Ir5CR6Pz8GoY0MUonjAvIhPsd3YT6bU8JE6e1m7HjIcz8CIjIUXLUQaD6gL+wWFb5qAO9sjMpYcU4sicOhgqEFAr5uGU8HZI41nAEreWqOgEFjXG1+ki0zEawv4GIu5h0AsSeRXptayiwlF4lc65ypBxyJFbzEt2fJWxLNwBWrKDqxy5KWKVe4RCL8hvR45aTIzROcZ8bVYoDhJlb090F6dFKTKzIYLMhOwGNxwLGkRV/o0ta1v+wbQpG3UD/265hIkO4tlwAif4Ui7IqQFviYRgCXSXusEFUE8IPz9oJa6v4SC14DvlV3kIzuqcugtJToOSp6Fe4NHYx6oE9IKpzEjhm9rDO9lohdSHU+0gN1iMF3MouYxsc/jYqUAT3mY8gjZfcbwwDni0ELUCmVr0bTosngRyApfeW2ca4R/GgC4We3HgtUP//rP5KjrHAeH39zCMI1UA768ioydqYcw6WFQVWebvre+VWROLSonPAjwLA+LdP9oQZOG9/4CFsORU3VsDq/N1b3kKnVw1OnHW760WATSE1lZqmhZjoUdksurj4ef0zTuOTAdP3ZgCLOPQVM/SUrtMRi12sSyTJ6HjiCYFzxGglwHq9fzZhgdwQSC7DS+cCYIJYPNkhMy8vMA8Hu4GZ303OIsBVaR1ZZmellvREceRGzCxnBRELFXe9UIoqVMK3Dj5koTMJSYa49k8jFw6gGiQPZ1rGhYB4hi4/FyPoH9R7CWRNTPVVKvoTuLt28RkI1K+i1Oua+MSUQqJzFSgOpPJaEjU5QGcRdp2KZlEqpQm7XodD3Ypw4BJ0RWLK4kHk8DDxQo67HfxQqDtbKDpMk9rCUNlraiezuhoc8uGG4QN6EWMkVzxEXap0YUTzLHRCy4x4zNQ2zaOMCM+fBGXbhvv4gkm0PlkiPRGl9bO66G9pLhLV1rgb5FSFABMcUagd6wKppxMwTnFbkQXOUG11H7ogdztj/9985vnr158fvvx0zdffvDff/zq1T9/dvPsQ/i4/evfbj75pVqmEkZjd0KxdGi8u7Vl1Tchz1ISEsE1JQL2Y49L2umpBL7pGOmLmhy0u732fn9XFpGUmKirPmKKO+AijLPhSC1CTiS31EwyQYk446Qo6XGBm+tLjriTXeKidJ5/l6KKxeuXn79++ec7tXXAMoBVazYb1Zr9VvxlW7XailyKv/qFwi+EN6tWo2rbOeElGXSkqn4ap57v1GtW07LrVi0t4H6ayOuEllna0tg9M5f0FKmtMFGaAvlxwpSJP4YjkrLVUcgNdIp++ZM3f3lakNLR1ZSiFXBOYhcxmZkMpOmDo7ExGh4ftbvGuDsSeZLxcnLK+DcI69nT81RIqiCIXfodAzo6dDCjAreeihFODex658YCTmLuHBaSbR1VTfRAk8te7kdhPFc7klPIqGsk02qyVmNNrZE8Gc+VopOx1ogrX2/+/sU6Bb2QToZinaPBrjEL0ryUNFTgKFKOr0/tZ/969dVHr168uH3+85uvflSwoOdJb/+Q53Ca8sM07aHk6X6zREEnIxnMC+v7uf6iieL2dBiSgDOn9khenPQIgWpNWJP/o94MWp40LOMF9CUKetdl3WuuD7ZzgMwiAfycu9Btw+x+mRJUDc/i+p/f/u7211/cfvr8zUd/uvn4jzeffPr65e/fPPuDOnW3T5/f/vSZrvLLjUD6Im6tCvkZ8hnEM8RpNETvNr5+/xdGEHIDIIcRy4r09fuf5YwJRyU4ySwDjksdKbqwIppXFnpGzpXUh4JeqqIAQFu0sHoqoZtYOCdeNsl7VWFKnDvJ+FZvXI0ZNkJAU9+GlRSFM+X76mkV1VIPH1t2zdZc5Y1YwsRludDv03ACICNhyEeGJZGC1jcrZLJyvv3+cLfVz0SUE8PIx5FIQ/WBeiwBlUl65SjABbDnxVS8Ba2IrbJQ8pUrXaZ+VJm2fFHy1r9JFCRQO44iBYIC/R4/iucAgJPXt7v58kUyh3kPFD7No+Bs3OsU+TDOcaH5FdmCIPmyHGmWKk09Jt5vFIQ9EKHJhsArvGJCOPSTu0JXl4AlI1PUmm4UhdHagpNxErEBoGeoImYW8VTGFFMqpO1ne5UQkiKXfqgrnl5h2MEU89Lv0Yn2ILx8sC7sfVnVHhtSXwez3HUjDUtmIP8oLxKlrDOtKALYJJ7wSr+i90lw0Su3eufx5tamN/Fq9qQxfVzb3JpO6s2G3fTtR3aj2YA6qIyK26cwIW4u4u5WbhIAi0X17HJ9BNftktZUgKWiuItCpOSB1IU9HaM9EjH+RJQo/aUopynlVEHnJ8I/9SHHp86mrQggYOYnMwteJ/WFq99vQtonM1LyvmolRahoBNJgPlfYsuyGQs87wNeAfHMWoFpPfgD9TL3qlLGmThUU+VQ/sTWKJ6XNmYnyIfBFYj1Mu+sDLnu4tvw1hND/wwGJvB5qohcwcnbOy+6r3WzW8SNsV+2p51U3YVCFbjyp+u60WbOsad1v2OIZWxuH7kDwVclJRE8hDO4V5fXMpZ+znf8BEr7/CgcfAAA=</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="MM-yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="MM-yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -812,4 +812,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>43</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1168D46-B3D6-4483-815F-BCCE1422D6B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_48.xlsx
+++ b/Testdata/TC_48.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Bx8AAB+LCAAAAAAAAAOlWVtv48YV/iuEnlqgMinK2rWMMQNZkh2hkmVYcr3OS0GRI3vqEalyhrb1lgIJUqQpiqLYFOkVfUpRoNtFmwDpbi//JVh7t0/9Cz1z4U2Ss6a7MLCcc5szZ86c880IvXM9o8YljhgJg51KbcOqGDjwQp8EZzuVmE+rtUeVdxzUvfYwPXQjd4Y5CBugFbDta0Z2Kuecz7dN8+rqauOqvhFGZ6ZtWTXzyaA/8s7xzK2SgHE38HAl1fLfrlVxUNufDTB3fZe7SnOn0hv1NtqYeB2gDdzAPcPRxm7MSIAZ6waccIKZ0Iywy3G7M/ieWphjbzzaqCFzhZ5J7saE+kquIKnoWg6mxWMyw45t2VbV2qram2Orud2wtutbG41G471EMRVEfZfxEY4uiScJI+7O5lLd2rI3rWbDqm8hc60Q2MoC4KAh9Y/wJWHYb2NKWamImHoDWx6HVZcLpoXMnK429HAX9iN3fj4mnOKy6nthhD0I1IPmPsBXw0jHbzzvA3d8TiK+6LiL0raOGY6GcxGNcqoO6oQBb1Ec8eM5bCr2Yc+B4fAoxsi8g5kpdQjz4JsEMfadqUtZXqnARCdhdMHmrocP4MCawsZVQEPXh8zihHHiZZOuMNBhFM7BIky+G1J/D6xq4TWM1HIvgBCLaXfD8CLzbh0TyRyQ2QB7OnN5Ir5CR6Pz8GoY0MUonjAvIhPsd3YT6bU8JE6e1m7HjIcz8CIjIUXLUQaD6gL+wWFb5qAO9sjMpYcU4sicOhgqEFAr5uGU8HZI41nAEreWqOgEFjXG1+ki0zEawv4GIu5h0AsSeRXptayiwlF4lc65ypBxyJFbzEt2fJWxLNwBWrKDqxy5KWKVe4RCL8hvR45aTIzROcZ8bVYoDhJlb090F6dFKTKzIYLMhOwGNxwLGkRV/o0ta1v+wbQpG3UD/265hIkO4tlwAif4Ui7IqQFviYRgCXSXusEFUE8IPz9oJa6v4SC14DvlV3kIzuqcugtJToOSp6Fe4NHYx6oE9IKpzEjhm9rDO9lohdSHU+0gN1iMF3MouYxsc/jYqUAT3mY8gjZfcbwwDni0ELUCmVr0bTosngRyApfeW2ca4R/GgC4We3HgtUP//rP5KjrHAeH39zCMI1UA768ioydqYcw6WFQVWebvre+VWROLSonPAjwLA+LdP9oQZOG9/4CFsORU3VsDq/N1b3kKnVw1OnHW760WATSE1lZqmhZjoUdksurj4ef0zTuOTAdP3ZgCLOPQVM/SUrtMRi12sSyTJ6HjiCYFzxGglwHq9fzZhgdwQSC7DS+cCYIJYPNkhMy8vMA8Hu4GZ303OIsBVaR1ZZmellvREceRGzCxnBRELFXe9UIoqVMK3Dj5koTMJSYa49k8jFw6gGiQPZ1rGhYB4hi4/FyPoH9R7CWRNTPVVKvoTuLt28RkI1K+i1Oua+MSUQqJzFSgOpPJaEjU5QGcRdp2KZlEqpQm7XodD3Ypw4BJ0RWLK4kHk8DDxQo67HfxQqDtbKDpMk9rCUNlraiezuhoc8uGG4QN6EWMkVzxEXap0YUTzLHRCy4x4zNQ2zaOMCM+fBGXbhvv4gkm0PlkiPRGl9bO66G9pLhLV1rgb5FSFABMcUagd6wKppxMwTnFbkQXOUG11H7ogdztj/9985vnr158fvvx0zdffvDff/zq1T9/dvPsQ/i4/evfbj75pVqmEkZjd0KxdGi8u7Vl1Tchz1ISEsE1JQL2Y49L2umpBL7pGOmLmhy0u732fn9XFpGUmKirPmKKO+AijLPhSC1CTiS31EwyQYk446Qo6XGBm+tLjriTXeKidJ5/l6KKxeuXn79++ec7tXXAMoBVazYb1Zr9VvxlW7XailyKv/qFwi+EN6tWo2rbOeElGXSkqn4ap57v1GtW07LrVi0t4H6ayOuEllna0tg9M5f0FKmtMFGaAvlxwpSJP4YjkrLVUcgNdIp++ZM3f3lakNLR1ZSiFXBOYhcxmZkMpOmDo7ExGh4ftbvGuDsSeZLxcnLK+DcI69nT81RIqiCIXfodAzo6dDCjAreeihFODex658YCTmLuHBaSbR1VTfRAk8te7kdhPFc7klPIqGsk02qyVmNNrZE8Gc+VopOx1ogrX2/+/sU6Bb2QToZinaPBrjEL0ryUNFTgKFKOr0/tZ/969dVHr168uH3+85uvflSwoOdJb/+Q53Ca8sM07aHk6X6zREEnIxnMC+v7uf6iieL2dBiSgDOn9khenPQIgWpNWJP/o94MWp40LOMF9CUKetdl3WuuD7ZzgMwiAfycu9Btw+x+mRJUDc/i+p/f/u7211/cfvr8zUd/uvn4jzeffPr65e/fPPuDOnW3T5/f/vSZrvLLjUD6Im6tCvkZ8hnEM8RpNETvNr5+/xdGEHIDIIcRy4r09fuf5YwJRyU4ySwDjksdKbqwIppXFnpGzpXUh4JeqqIAQFu0sHoqoZtYOCdeNsl7VWFKnDvJ+FZvXI0ZNkJAU9+GlRSFM+X76mkV1VIPH1t2zdZc5Y1YwsRludDv03ACICNhyEeGJZGC1jcrZLJyvv3+cLfVz0SUE8PIx5FIQ/WBeiwBlUl65SjABbDnxVS8Ba2IrbJQ8pUrXaZ+VJm2fFHy1r9JFCRQO44iBYIC/R4/iucAgJPXt7v58kUyh3kPFD7No+Bs3OsU+TDOcaH5FdmCIPmyHGmWKk09Jt5vFIQ9EKHJhsArvGJCOPSTu0JXl4AlI1PUmm4UhdHagpNxErEBoGeoImYW8VTGFFMqpO1ne5UQkiKXfqgrnl5h2MEU89Lv0Yn2ILx8sC7sfVnVHhtSXwez3HUjDUtmIP8oLxKlrDOtKALYJJ7wSr+i90lw0Su3eufx5tamN/Fq9qQxfVzb3JpO6s2G3fTtR3aj2YA6qIyK26cwIW4u4u5WbhIAi0X17HJ9BNftktZUgKWiuItCpOSB1IU9HaM9EjH+RJQo/aUopynlVEHnJ8I/9SHHp86mrQggYOYnMwteJ/WFq99vQtonM1LyvmolRahoBNJgPlfYsuyGQs87wNeAfHMWoFpPfgD9TL3qlLGmThUU+VQ/sTWKJ6XNmYnyIfBFYj1Mu+sDLnu4tvw1hND/wwGJvB5qohcwcnbOy+6r3WzW8SNsV+2p51U3YVCFbjyp+u60WbOsad1v2OIZWxuH7kDwVclJRE8hDO4V5fXMpZ+znf8BEr7/CgcfAAA=</t>
+          <t>Dh0AAB+LCAAAAAAAAAOlWetvI0kR/1dG/gQS9oydZM+JOnPyK3sWdhzZDtncF9Se6cRDembMdE8Sfzsk0KHjEEJoDx1P8ekQEssK7qRjl8f/ctpkl0/8C1Q/5mU7t5mwijbTVb+qrq6urqruoHevfWpckoh5YbBfqdesikECJ3S94Hy/EvOzav1R5V0b9a4dQo9whH3CAWyAVMD2rpm3X5lzvtgzzaurq9rVVi2Mzs2GZdXNJ8PBxJkTH1e9gHEcOKSSSrlvl6rYqOP6Q8KxizlWkvuV/qRf6xDP6QJtiAN8TqJaO2ZeQBjrBdzjHmFCMiKYk053+B21MLtRe1SrI3ONniHbsUddhSsgFV3jYFoy9XxiN6x6s2o1q1v1qbW7t72919ipNZvN9xPBFIgGmPEJiS49RxImHPsLKW41t+rW7vZ2YweZG0GgK3OAjUbUHZNLjxG3QyhlpTxi6g1sORxWXc6ZFjJzslrRw014HOHFfOpxSsqZMR62DT/QtmRKbHQQRsQB/z3IpENyNYq0W6eLAXCncy/iyy5eltZ1zEg0WggnlRO1UTcMeIuSiB8vYK+JC6EADJtHMUHmHcxMqOsxB769ICaufYYpywsVmOgkjC7YAjvkEM6xKXRcBTTELgQc9xj3nGzSNQY6isIFaITJ2yF1D0CrBm9gpJr7AbhYTNsOw4vMuk1MJHdV7i/sqY95Al+jo8k8vBoFdDmJZ8yJvBlxu+0EvZGHxIHU0p2Y8dAHKzISUrQcZTisLuEfnMFVDuoSx/MxPaLgR2ZvgaICAbViHp55vBPS2A9YYtYKFZ3AoqbkOl1kOkYj2N9A+D0M+kGCV57eyCoKjMOrdM51hvRDjtxiTrLj64xVcBdoyQ6uc+SmiFUeeBRKRH47ctRiYEzmhPCNUaE4SGTDA1F07BalyMyGCCITohvMsC2oG1X5M7WsPfkD06Zs1Avcu3EJEx3G/mgGJ/hSLsiuA2+FhGAJtE1xcAHUE4/PD1uJ6Rs4SC34Tvw6D8FZXVC8lOTUKXka6gcOjV2iUkA/OJMRKWxTe3gnG62RBnCqbYSD5XS5gEzMvD0OH/sVqM17jEdQ/Su2E8YBj5YiVyBTQ98mw+JZICfA9N4yZxH5fgxNx/IgDpxO6N5/Nld55zjw+P0tDONIJcD7i0jviVwYsy4RWUWm+XvLO2XWxKJScD8gfhh4zv29DU4W1rsPWAhLTtW9JYg6X/fGU6jkqtCJs35vsQg6RihtpaZpMRY6ngxWfTzcnLx5x5HpkjMcU+jWOBTV8zTVrpJRi12sYvIkdBzRJOHZohdm0Aw7rl9zoF0QDV/NCX1BMKEHPZkgM48XPY9DesH5AAfnMXQVaV5ZpafpVlTEaYQDJpaTNhErmXczCCV5SjU3dj4lIXOFiabEX4QRpkPwhnegY023RdBxDDGf6xHUL0qcxLNmJppKFc1JrH0bTBYiZbs45To3rhAlSESm6rUzTEZDIi8P4SzSDqbeLFKpNCnXm3iwS1kPmCRdsbiS/WDieLhvQYX9NlmKJjwbaLqM03rCUFErsqc9GW83GzvWVgO6FzFGcsVjgqnRgxPMidEPLgnjPojtGWPCPBe+PEz3jPfIjHhQ+aSL9EaXls7LoYMkuUtTWmBvkVIEQE9x7kHtWAemnEzAPiU4osscUC11EDqAu/3xv29+8/zVi89uP3r65osf/vcfv3r1z5/dPPsRfNz+9W83H/9SLVOB0RTPKJEGTdvNprW1DXGWkpBwrik7YDd2uKSdnsrGNx0jfX+Tg06v33k8aMskkhITcVVHTHE1XIZxNpyoRciJ5JaaSSQoiD1NkpIeF7i5umSLq9olKaLz/LsElS9ev/zs9cs/3ymtHZY1WPXd3Z1qvfHW/gsuvfU1XNp/DQqJX4C3q9ZOtdHIgVcwaKyyfuqnvmuLO7XV2LLqaQJ300DeBFplaU1TfG6uyClSR/VEaQjkxwlTBv4UjkjKVkchN9Ah+sVP3vzlaQGlvaspRS1gnOxdxGRmMpCqD8dTYzI6Hnd6xrQ3EXGS8XI4pfxrwHr29DwVgioIYky/ZUBFhwpmVODWUzHCM4NgZ24s4STmzmEh2DZR1UQPVLlq5eMojBdqR3ICGXUDMs0mGyU25BrJk/5cSzoZawNc2Xrz9883CeiFdLMuNn3myNNQgaNIOb4+tZ/+69WXH7568eL2+c9vvvxBQYOeJ739Q5zDacoP07CHlKfrzQoFnUykMy+s7+bqiyaK29NR6AWc2fVH8uKkRwhE60Kb/I36PpQ8qVj6C+grFPQeZr1rrg+2fYjMIgHsXGCotmF2v0wJKodnfv3Pb393++vPbz95/ubDP9189Mebjz95/fL3b579QZ2626fPb3/6TGf51UIgbRG3VtX5GfIZxDHEaTRE7Ta++uAXRhByA1oOI5YZ6asPPs0pE4bK5iTTDH1cakjRhDVoXljIGTlTUhsKcqmIagA6ooRtpQhdxMKF52STvF8VqsS5k4xv9KfVmBEjhG7qm7CSIjgTvq+cFlEl9egdq1FvaK6yRixhhlnO9Y9pOIMmI2HIR4YVSEHq6wUyrJzv8WDUbg0yiDJiFLkkEmGoPlDSUoqS0mfJKAm1HAW40Pg5MRXvQmuwdVaqOZfGTP3ActZyRfrb/D5RQKBOHEWqIQr0k/0kXkAznLzE3c2Xr5O5/vdQ9ar5jjgb97tFPoxzXCiERbYgSL5MTZql0lSfibcc1c4eCtdkQ+AVXjTBHfpVXnVal9BXRqbIO70oCqONySfjJLAhdNKQUczM4ylG7qnqut1srxJCkvDSD3Xd0ysMu4QSXu7J2sykh+Hlg2Vh78uK9tmIutqZ5a4eqVsyBfl3exEo/++zvQq2VhRBYyUe+Uq/sye31TFccktao5YiBcUNEGbXD+EHXsT4E5EJ9JeinKaUU9WhPhEXLvUhx6f2dkMRAGDmtZsFM5Ojy9VfT0I68Hyv5LXQSs53UQn4crFQLVy/XKSI0nJIrqHBzGmApDj7HpQN9XhSRpsKWMilqbx4sGTe+ZyXNeydGSYumVlVZ0Ya1W3XalZ3Cdmq1uvwP3YaDcvaEc+dWjlkDo9clZzETDYs+6um/T8RHdQvDh0AAA==</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="MM-yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="MM-yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -812,37 +812,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>43</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1168D46-B3D6-4483-815F-BCCE1422D6B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>